--- a/data/ww_cleaned.xlsx
+++ b/data/ww_cleaned.xlsx
@@ -16663,7 +16663,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>20aa1ap</t>
+          <t>20aa1a</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
